--- a/misc/mål/Checklist Eksamen.xlsx
+++ b/misc/mål/Checklist Eksamen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\misc\mål\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{214E5BA1-2561-45AA-B68B-4A449B158A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4E45EDE8-D4BB-4423-911C-106736B5593C}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{214E5BA1-2561-45AA-B68B-4A449B158A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{23E7705D-5CE2-4A13-AC0E-DB8FF7EDA982}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7625A02B-A383-41B2-BADB-A96D07FF88A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{7625A02B-A383-41B2-BADB-A96D07FF88A4}"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Programm</t>
   </si>
@@ -42,24 +42,9 @@
     <t>GUI (grafisk brugergrænseflade)</t>
   </si>
   <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>CRUD</t>
-  </si>
-  <si>
-    <t>Andet</t>
-  </si>
-  <si>
-    <t>Programmets robusthed: Exception, Try-except block</t>
-  </si>
-  <si>
     <t>Layered architecture (lagdeling)</t>
   </si>
   <si>
-    <t>Object oriented programming</t>
-  </si>
-  <si>
     <t>Best Practice</t>
   </si>
   <si>
@@ -72,9 +57,6 @@
     <t>Bonusspørgsmål: Hvad er en statisk metode?</t>
   </si>
   <si>
-    <t>Hvorfor er nedarvning praktisk?</t>
-  </si>
-  <si>
     <t>Hvad er en klasse?</t>
   </si>
   <si>
@@ -102,9 +84,6 @@
     <t>Hvad er en relationel database?</t>
   </si>
   <si>
-    <t>Hvad er en database-tabel?</t>
-  </si>
-  <si>
     <t>Hvad indeholder tabellens rækker og kollonner?</t>
   </si>
   <si>
@@ -127,6 +106,24 @@
   </si>
   <si>
     <t>Hvad er nedarvning?</t>
+  </si>
+  <si>
+    <t>Hvad er SQL?</t>
+  </si>
+  <si>
+    <t>Hvad er CRUD-funktioner?</t>
+  </si>
+  <si>
+    <t>Hvad er en exception?</t>
+  </si>
+  <si>
+    <t>Hvordan fungerer en try-except block?</t>
+  </si>
+  <si>
+    <t>Hvorfor er nedarvning nyttig?</t>
+  </si>
+  <si>
+    <t>Objekt orienteret programmering</t>
   </si>
 </sst>
 </file>
@@ -179,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -398,11 +395,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +485,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,37 +805,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="77.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="77.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="77.85546875" style="1"/>
+    <col min="1" max="1" width="0.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="23.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="77.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -804,10 +842,9 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="12" t="s">
         <v>1</v>
@@ -815,10 +852,9 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="14" t="s">
         <v>2</v>
@@ -826,341 +862,310 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="21" t="s">
-        <v>18</v>
+      <c r="B11" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="20" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9" t="s">
+      <c r="B20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="19" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="20" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="22" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="19" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="22" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.38" right="0.43" top="0.34" bottom="0.34" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>